--- a/data/trans_camb/P25A_4_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_4_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -572,37 +584,67 @@
       </c>
       <c r="E2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M2</t>
+          <t>M5/M2</t>
         </is>
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>1,53</t>
+          <t>3,74</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,65</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>52,08</t>
+          <t>0,88</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-0,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-0,83</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>67,11</t>
+          <t>0,04</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,22</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>0,94</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>56,64</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>1,71</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>1,06</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>0,91</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-2,99; 5,12</t>
+          <t>-1,73; 8,65</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,9; 5,76</t>
+          <t>-3,07; 5,71</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>30,38; 71,67</t>
+          <t>-4,05; 4,64</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,19; 2,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-4,3; 2,0</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>41,58; 89,62</t>
+          <t>-4,08; 2,75</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-2,08; 2,65</t>
+          <t>-4,46; 2,75</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,35; 2,8</t>
+          <t>-3,26; 4,75</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>38,46; 72,81</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 4,64</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-1,91; 3,32</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-2,29; 3,52</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>54,01%</t>
+          <t>155,57%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>58,24%</t>
+          <t>87,4%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>1833,85%</t>
+          <t>36,79%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-22,37%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-24,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>1956,37%</t>
+          <t>1,61%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>9,52%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>8,0%</t>
+          <t>40,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>1786,37%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>72,87%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>45,08%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>38,79%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -791,47 +929,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-62,51; 558,09</t>
+          <t>-53,4; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-66,85; 614,71</t>
+          <t>-64,53; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>560,45; 9132,69</t>
+          <t>-89,43; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-73,85; 166,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-75,51; 128,46</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>717,29; 4682,07</t>
+          <t>-81,93; 800,78</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-49,48; 146,72</t>
+          <t>-82,38; 529,64</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-50,09; 149,81</t>
+          <t>-92,3; 957,35</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>922,6; 3790,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-35,61; 587,68</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-46,31; 380,23</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-60,64; 366,1</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-0,19</t>
+          <t>-0,91</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>-0,8</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>44,29</t>
+          <t>-1,69</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,17</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>0,14</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
           <t>0,51</t>
         </is>
       </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>57,61</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>-0,01</t>
-        </is>
-      </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,5</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>50,25</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,37</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-0,14</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>-1,08</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,75; 0,98</t>
+          <t>-3,04; 1,0</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,19; 2,16</t>
+          <t>-2,92; 1,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>22,55; 69,03</t>
+          <t>-4,05; -0,19</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-1,54; 1,82</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,39; 2,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>35,16; 76,56</t>
+          <t>-4,47; 2,34</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,14; 1,05</t>
+          <t>-3,58; 3,12</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,74</t>
+          <t>-4,72; 1,24</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>34,84; 67,85</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-2,62; 1,21</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-2,58; 1,57</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-3,52; 0,16</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-14,17%</t>
+          <t>-37,97%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,14%</t>
+          <t>-33,2%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3274,06%</t>
+          <t>-70,07%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>12,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>37,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>4241,02%</t>
+          <t>8,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-0,97%</t>
+          <t>31,09%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>27,32%</t>
+          <t>-30,61%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>3707,17%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-18,45%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-7,01%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>-53,68%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-75,59; 168,84</t>
+          <t>-81,14; 100,25</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-69,59; 302,0</t>
+          <t>-79,08; 138,07</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>1212,07; 8794,84</t>
+          <t>-100,0; 11,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-77,52; 317,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-73,52; 434,91</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1158,93; 13048,07</t>
+          <t>-96,61; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-59,0; 129,3</t>
+          <t>-92,68; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-51,3; 211,43</t>
+          <t>-100,0; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1765,29; 7375,46</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-72,63; 128,05</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-72,53; 155,64</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-87,64; 25,91</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,76</t>
+          <t>0,39</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-0,51</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>56,81</t>
+          <t>1,59</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1,01</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,49</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>0,71</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>0,88</t>
+          <t>0,4</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>57,12</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>0,56</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>0,17</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,56</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-0,74; 4,47</t>
+          <t>-0,77; 1,74</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,86; 0,31</t>
+          <t>-1,44; 0,5</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>16,74; 99,13</t>
+          <t>-0,07; 4,3</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,15; 2,23</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,19; 1,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,15; 1,78</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,1; 2,37</t>
+          <t>-0,47; 1,31</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-0,76; 0,61</t>
+          <t>0,27; 3,66</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>17,02; 99,44</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-0,16; 1,33</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-0,57; 0,69</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,49; 2,97</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>89,87%</t>
+          <t>100,48%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-60,76%</t>
+          <t>-18,09%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>6755,8%</t>
+          <t>405,18%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>513,32%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>246,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>257,37%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>168,35%</t>
+          <t>145,39%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-1,62%</t>
+          <t>550,31%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10956,34%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>168,83%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>52,3%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>467,77%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1233,7 +1611,7 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>791,27; 31327,71</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
@@ -1253,15 +1631,45 @@
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-40,82; 1149,29</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-84,99; 371,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-79,27; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-79,26; —</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>-38,73; —</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1270,7 +1678,7 @@
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,54</t>
+          <t>-0,12</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,35</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>49,97</t>
+          <t>0,17</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,25</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>62,36</t>
+          <t>0,34</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,27</t>
+          <t>0,77</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>54,42</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,1</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>0,45</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,86</t>
+          <t>-1,78; 3,07</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 1,75</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>36,3; 65,19</t>
+          <t>-1,66; 2,59</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,9; 1,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-0,97; 1,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>44,48; 76,89</t>
+          <t>-1,38; 2,66</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,45; 1,22</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,51; 1,13</t>
+          <t>-1,04; 3,52</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>42,93; 66,19</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,16; 2,15</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,85; 2,16</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,87%</t>
+          <t>-8,83%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>23,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3401,87%</t>
+          <t>12,1%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>13,02%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>4200,67%</t>
+          <t>25,99%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>26,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>18,19%</t>
+          <t>59,29%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>3684,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>7,11%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>33,78%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-32,1; 175,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-40,15; 190,92</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1801,99; 6452,51</t>
+          <t>-80,84; 416,42</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-43,63; 146,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-47,53; 158,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>2218,85; 7734,8</t>
+          <t>-80,06; 467,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-23,16; 108,7</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-29,21; 101,86</t>
+          <t>-72,2; 609,33</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>2290,89; 5802,23</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-66,68; 263,22</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-53,87; 282,12</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,42</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,26</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,07</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>0,35</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,48</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>0,64</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,39</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,37</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,76; 1,61</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,86; 1,63</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-1,01; 1,34</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,07; 1,39</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-0,79; 2,01</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>-0,71; 1,76</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,4; 1,16</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,5; 1,33</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>-0,62; 1,07</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>27,09%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>16,41%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>4,31%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>27,12%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>36,76%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>49,57%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>27,1%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>25,86%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>25,35%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-38,9; 152,3</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-43,34; 162,59</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-50,22; 135,84</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-53,32; 175,82</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-55,23; 226,13</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>-42,37; 224,68</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-23,02; 115,7</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-30,76; 129,26</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>-34,08; 101,36</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
